--- a/Report/Mail_Attachment/FinalReport.xlsx
+++ b/Report/Mail_Attachment/FinalReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>Config</x:t>
   </x:si>
@@ -26,7 +26,7 @@
     <x:t>Pass</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:51:15 AM</x:t>
+    <x:t>21-01-2021 11:29:13 AM</x:t>
   </x:si>
   <x:si>
     <x:t>Login</x:t>
@@ -35,7 +35,13 @@
     <x:t>Portal Login</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:51:55 AM</x:t>
+    <x:t>21-01-2021 11:29:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 01:00:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 01:00:55 PM</x:t>
   </x:si>
   <x:si>
     <x:t>OM Workflow</x:t>
@@ -44,34 +50,37 @@
     <x:t>OM Ingest Completion statusCompleted</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:52:35 AM</x:t>
+    <x:t>21-01-2021 01:01:38 PM</x:t>
   </x:si>
   <x:si>
     <x:t>OM Archival Completion status isCompleted</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:52:47 AM</x:t>
+    <x:t>21-01-2021 01:01:51 PM</x:t>
   </x:si>
   <x:si>
     <x:t>OM-AQC completion status in Fail</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:52:59 AM</x:t>
+    <x:t>21-01-2021 01:02:03 PM</x:t>
   </x:si>
   <x:si>
     <x:t>OM-AME Completion status is Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:53:11 AM</x:t>
+    <x:t>21-01-2021 01:02:17 PM</x:t>
   </x:si>
   <x:si>
     <x:t>Verify User is able to enter the Password</x:t>
   </x:si>
   <x:si>
-    <x:t>21-01-2021 10:51:27 AM</x:t>
+    <x:t>21-01-2021 11:29:31 AM</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Verify User is able to login to Portal </x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 01:00:44 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -458,58 +467,86 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -537,13 +574,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -551,13 +588,41 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
